--- a/biology/Botanique/Neomonodontaceae/Neomonodontaceae.xlsx
+++ b/biology/Botanique/Neomonodontaceae/Neomonodontaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Neomonodontaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Eustigmatophyceae et de l’ordre des Eustigmatales.
-Ce sont principalement des algues coccoïdes[2] d'eau douce, certains genres sont communs dans les habitats terrestres, voire marins.
+Ce sont principalement des algues coccoïdes d'eau douce, certains genres sont communs dans les habitats terrestres, voire marins.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Neomonodus, de neo, nouveau et monodus, en référence au Monodus, ancien nom du Monodopsis, genre type de la famille des Monodopsidaceae.
 </t>
@@ -543,10 +557,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La création en 2020 de la famille des Neomonodaceae qui comprend, en plus des Pseudellipsoidion (genre créé en 2001), trois autres dont le genre type Neomonodus, a eu pour but de résoudre l'histoire taxonomique complexe d'un genre nommé à l'origine Monodus.
-En même temps que la famille, les genres Characiopsiella et Munda furent créés,  pour accueillir des représentants supplémentaires du genre polyphylétique Characiopsis (Characiopsis, Borzì, 1895, genre actuellement intégré à la classe des Xanthophyceae et la famille des Characiopsidaceae)[3].
+En même temps que la famille, les genres Characiopsiella et Munda furent créés,  pour accueillir des représentants supplémentaires du genre polyphylétique Characiopsis (Characiopsis, Borzì, 1895, genre actuellement intégré à la classe des Xanthophyceae et la famille des Characiopsidaceae).
 </t>
         </is>
       </c>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,9 +619,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (20 février 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (20 février 2022) :
 Characiopsiella R.Amaral et al., 2020
 Munda R.Amaral et al., 2020
 Neomonodus R.Amaral et al., 2020
